--- a/SensitivityAnalysisSpreadSheets/Holdback Bar Time/HoldbackBarTime10 Aircraft 9_1_-75%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Holdback Bar Time/HoldbackBarTime10 Aircraft 9_1_-75%.xlsx
@@ -73478,6 +73478,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.93666666666667</v>
+      </c>
       <c r="C2" t="n">
         <v>459.7244444444445</v>
       </c>
@@ -73533,6 +73536,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>12.0005</v>
+      </c>
       <c r="C3" t="n">
         <v>423.8427777777778</v>
       </c>
@@ -73588,6 +73594,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>13.53066666666667</v>
+      </c>
       <c r="C4" t="n">
         <v>465.4277777777778</v>
       </c>
@@ -73643,6 +73652,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>13.95833333333333</v>
+      </c>
       <c r="C5" t="n">
         <v>457.4605555555555</v>
       </c>
@@ -73698,6 +73710,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>13.07966666666667</v>
+      </c>
       <c r="C6" t="n">
         <v>432.6516666666666</v>
       </c>
@@ -73753,6 +73768,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>13.89716666666667</v>
+      </c>
       <c r="C7" t="n">
         <v>443.9166666666666</v>
       </c>
@@ -73808,6 +73826,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>12.79916666666667</v>
+      </c>
       <c r="C8" t="n">
         <v>429.5105555555556</v>
       </c>
@@ -73863,6 +73884,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>13.69333333333333</v>
+      </c>
       <c r="C9" t="n">
         <v>434.2477777777777</v>
       </c>
@@ -73918,6 +73942,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>15.33383333333333</v>
+      </c>
       <c r="C10" t="n">
         <v>468.0527777777777</v>
       </c>
@@ -73973,6 +74000,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>13.77033333333333</v>
+      </c>
       <c r="C11" t="n">
         <v>443.8972222222221</v>
       </c>
@@ -74028,6 +74058,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>14.501</v>
+      </c>
       <c r="C12" t="n">
         <v>463.5855555555556</v>
       </c>
@@ -74083,6 +74116,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>14.671</v>
+      </c>
       <c r="C13" t="n">
         <v>447.9066666666666</v>
       </c>
@@ -74138,6 +74174,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>14.0275</v>
+      </c>
       <c r="C14" t="n">
         <v>413.945</v>
       </c>
@@ -74193,6 +74232,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>13.436</v>
+      </c>
       <c r="C15" t="n">
         <v>430.5777777777778</v>
       </c>
@@ -74248,6 +74290,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>14.40333333333333</v>
+      </c>
       <c r="C16" t="n">
         <v>440.65</v>
       </c>
@@ -74303,6 +74348,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>12.69533333333333</v>
+      </c>
       <c r="C17" t="n">
         <v>445.0877777777778</v>
       </c>
@@ -74358,6 +74406,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>14.1855</v>
+      </c>
       <c r="C18" t="n">
         <v>440.8866666666668</v>
       </c>
@@ -74413,6 +74464,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>13.36133333333333</v>
+      </c>
       <c r="C19" t="n">
         <v>440.4344444444445</v>
       </c>
@@ -74468,6 +74522,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>11.8245</v>
+      </c>
       <c r="C20" t="n">
         <v>414.6522222222222</v>
       </c>
@@ -74523,6 +74580,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>12.8795</v>
+      </c>
       <c r="C21" t="n">
         <v>452.8472222222222</v>
       </c>
@@ -74578,6 +74638,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>12.55783333333333</v>
+      </c>
       <c r="C22" t="n">
         <v>437.045</v>
       </c>
@@ -74633,6 +74696,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>13.39383333333333</v>
+      </c>
       <c r="C23" t="n">
         <v>432.9972222222222</v>
       </c>
@@ -74688,6 +74754,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.21083333333333</v>
+      </c>
       <c r="C24" t="n">
         <v>448.2555555555556</v>
       </c>
@@ -74743,6 +74812,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.54816666666667</v>
+      </c>
       <c r="C25" t="n">
         <v>472.4</v>
       </c>
@@ -74798,6 +74870,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>13.407</v>
+      </c>
       <c r="C26" t="n">
         <v>439.2061111111111</v>
       </c>
@@ -74853,6 +74928,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.97533333333333</v>
+      </c>
       <c r="C27" t="n">
         <v>424.3538888888888</v>
       </c>
@@ -74908,6 +74986,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>13.096</v>
+      </c>
       <c r="C28" t="n">
         <v>445.6016666666667</v>
       </c>
@@ -74963,6 +75044,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>13.0995</v>
+      </c>
       <c r="C29" t="n">
         <v>429.2488888888889</v>
       </c>
@@ -75018,6 +75102,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.17016666666667</v>
+      </c>
       <c r="C30" t="n">
         <v>452.2077777777778</v>
       </c>
@@ -75072,6 +75159,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13.84583333333333</v>
       </c>
       <c r="C31" t="n">
         <v>420.0627777777778</v>
